--- a/biology/Botanique/Rubus_canescens/Rubus_canescens.xlsx
+++ b/biology/Botanique/Rubus_canescens/Rubus_canescens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Ronce tomenteuse ou ronce blanchâtre (Rubus canescens) est une espèce de plantes à fleurs de la famille des rosacées.
 </t>
@@ -511,7 +523,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Rubus cinereus (Rchb.)
 Rubus hypoleucus (Vest)
@@ -546,7 +560,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Rubus canescens est une ronce épineuse et duveteuse. Elle possède des turions faibles, marqués par un petit canal en gouttière sur ses faces, il possède des tiges recouvertes de petites épines en forme d’aiguillon ainsi que des épines en forme de faucille.
 Les feuilles comportent un fin duvet et sont blanches sur la face inférieure. Les feuilles sont composées de trois à cinq folioles grossièrement dentés, la feuille terminale est obovale (en forme d'œuf).
@@ -579,9 +595,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette ronce aime les lieux secs et calcaires. En France on la rencontre principalement dans le Sud et l'Est[1]. Elle est aussi présente dans toute l’Europe méridionale, en Europe centrale et de l'Asie occidentale à la Perse.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette ronce aime les lieux secs et calcaires. En France on la rencontre principalement dans le Sud et l'Est. Elle est aussi présente dans toute l’Europe méridionale, en Europe centrale et de l'Asie occidentale à la Perse.
 </t>
         </is>
       </c>
